--- a/Practica%204/Libro1.xlsx
+++ b/Practica%204/Libro1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eps\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eps\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>frecuencia (Hz)</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>dB</t>
+  </si>
+  <si>
+    <t>Circuito 1K, 2K2</t>
+  </si>
+  <si>
+    <t>Grados (º)</t>
   </si>
 </sst>
 </file>
@@ -83,13 +89,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -106,6 +118,6532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Cociente</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Vab/V2 (lineal)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94358974358974368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96354166666666674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="264421696"/>
+        <c:axId val="264423376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="264421696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264423376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="264423376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>|Av|</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264421696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>|Av| en escala logarítmica (dB)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-34.894549897933878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-23.478503945983469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19.1721462968355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.478174818886377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.555614105321613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.9341724376267724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.2230181852548947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3837281543841731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5144142787623671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91514981121350236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.69524212518423834</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.50433576705963012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.32259000601071552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222210960"/>
+        <c:axId val="262477072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222210960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262477072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262477072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>|Av|</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222210960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Cociente</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Vab/V2 (lineal)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$L$3:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87254901960784315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265978624"/>
+        <c:axId val="267712688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="265978624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267712688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267712688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>|Av| (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265978624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>|Av| en escala</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> logarítmica (dB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$M$3:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-13.151546383555875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.3521248035406286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7335427975908821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6709210290014986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1842033023400953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.44552789422304506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265977504"/>
+        <c:axId val="262195344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="265977504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262195344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262195344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>|Av| (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265977504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Diferencia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> de fase (grados)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="115576816"/>
+        <c:axId val="115577376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="115576816"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115577376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115577376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Grados (º)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115576816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Diferencia de fase (grados)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$O$3:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="218615568"/>
+        <c:axId val="218616688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="218615568"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia (Hz) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="218616688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="218616688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Grados (º)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="218615568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,10 +6909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,414 +6920,735 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="6" width="17.7109375" customWidth="1"/>
+    <col min="4" max="7" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>50</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2/C2</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <f>20*LOG10(D2)</f>
-        <v>-34.894549897933878</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>150</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.26800000000000002</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D14" si="0">B3/C3</f>
-        <v>6.7000000000000004E-2</v>
+        <f>B3/C3</f>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E14" si="1">20*LOG10(D3)</f>
-        <v>-23.478503945983469</v>
+        <f>20*LOG10(D3)</f>
+        <v>-34.894549897933878</v>
       </c>
       <c r="F3" s="1">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>360*F3*A3</f>
+        <v>90</v>
+      </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="1">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>J3/K3</f>
+        <v>0.22</v>
+      </c>
+      <c r="M3" s="1">
+        <f>20*LOG10(L3)</f>
+        <v>-13.151546383555875</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="O3" s="3">
+        <f>360*N3*I3</f>
+        <v>75.599999999999994</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1">
-        <v>0.44</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ref="D4:D15" si="0">B4/C4</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E15" si="1">20*LOG10(D4)</f>
+        <v>-23.478503945983469</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G15" si="2">360*F4*A4</f>
+        <v>86.4</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>150</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L15" si="3">J4/K4</f>
+        <v>0.54</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M15" si="4">20*LOG10(L4)</f>
+        <v>-5.3521248035406286</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O15" si="5">360*N4*I4</f>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>-19.1721462968355</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>86.4</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>250</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.73</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.7335427975908821</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>350</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>0.6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>-16.478174818886377</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>6.2E-4</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>78.12</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>350</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6709210290014986</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.1E-4</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="5"/>
+        <v>39.06</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>500</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.84</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>-13.555614105321613</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>72.000000000000014</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>500</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87254901960784315</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.1842033023400953</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="5"/>
+        <v>19.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1500</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>2.02</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0.505</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>-5.9341724376267724</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>1.0399999999999999E-4</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>56.160000000000004</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.44552789422304506</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="5"/>
+        <v>11.88</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2500</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>2.76</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>-3.2230181852548947</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>4.8000000000000001E-5</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>43.2</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="5"/>
+        <v>6.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>3.04</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>-2.3837281543841731</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>30.240000000000002</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>5000</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>3.36</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>-1.5144142787623671</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>15000</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>3.6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>-0.91514981121350236</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>15000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>25000</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>3.6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>3.9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>-0.69524212518423834</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>25000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>35000</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>3.68</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>3.9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0.94358974358974368</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>-0.50433576705963012</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>35000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>50000</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>3.7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>3.84</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0.96354166666666674</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>-0.32259000601071552</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>1E-8</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -802,8 +7661,9 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -816,8 +7676,9 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -830,8 +7691,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -844,8 +7706,9 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -858,8 +7721,9 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -872,8 +7736,9 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -886,8 +7751,9 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -900,8 +7766,9 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -914,8 +7781,9 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -928,8 +7796,9 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -942,8 +7811,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -956,8 +7826,9 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -970,8 +7841,9 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -984,9 +7856,29 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>